--- a/INTLINE/data/144/SCB/PPI2015M.xlsx
+++ b/INTLINE/data/144/SCB/PPI2015M.xlsx
@@ -1228,7 +1228,7 @@
     <x:t>Contact:</x:t>
   </x:si>
   <x:si>
-    <x:t>(SCB) Statistikservice, Statistics Sweden</x:t>
+    <x:t xml:space="preserve"> Statistikservice, Statistics Sweden</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> +46 010-479 50 00</x:t>
